--- a/in/partidos.xlsx
+++ b/in/partidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonbe\OneDrive\Escritorio\Proyectos2024\DATA4BASKET\APPS\modelo resumen partido\streamlit\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonbe\OneDrive\Escritorio\Proyectos2024\DATA4BASKET\APPS\git_actual\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F2F911-ABF1-4462-A8A3-976BE40601E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D6DFD-08E1-4E06-ACAE-AC92FFD0A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{108F4811-7F4A-4204-A410-48937B2A7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{108F4811-7F4A-4204-A410-48937B2A7909}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>JORNADA</t>
   </si>
@@ -246,6 +246,36 @@
   </si>
   <si>
     <t>ACB24_104105</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>ACB24_104106</t>
+  </si>
+  <si>
+    <t>ACB24_104107</t>
+  </si>
+  <si>
+    <t>ACB24_104108</t>
+  </si>
+  <si>
+    <t>ACB24_104109</t>
+  </si>
+  <si>
+    <t>ACB24_104110</t>
+  </si>
+  <si>
+    <t>ACB24_104111</t>
+  </si>
+  <si>
+    <t>ACB24_104112</t>
+  </si>
+  <si>
+    <t>ACB24_104113</t>
+  </si>
+  <si>
+    <t>ACB24_104114</t>
   </si>
 </sst>
 </file>
@@ -623,18 +653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C998DC9-185B-44B3-8828-CAE931A7AF82}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +687,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -679,8 +713,11 @@
       <c r="G2" t="s">
         <v>61</v>
       </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -702,8 +739,11 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -725,8 +765,11 @@
       <c r="G4" t="s">
         <v>63</v>
       </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -748,8 +791,11 @@
       <c r="G5" t="s">
         <v>64</v>
       </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -771,8 +817,11 @@
       <c r="G6" t="s">
         <v>65</v>
       </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -794,8 +843,11 @@
       <c r="G7" t="s">
         <v>66</v>
       </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -817,8 +869,11 @@
       <c r="G8" t="s">
         <v>67</v>
       </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -840,8 +895,11 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -862,6 +920,9 @@
       </c>
       <c r="G10" t="s">
         <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
